--- a/docs/LDM.xlsx
+++ b/docs/LDM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton\hackaton\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="LDM" sheetId="1" r:id="rId1"/>
@@ -752,29 +752,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="1"/>
     <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1057,7 +1057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1321,7 +1321,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
